--- a/ExcelFiles/xlsxData.xlsx
+++ b/ExcelFiles/xlsxData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D3D27F-EF90-4CF2-8765-529A8C9A2CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFD17E8-F976-4028-B7DB-9ECE48FEA1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
   <si>
     <t>19166359</t>
@@ -527,13 +530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.95">
@@ -550,161 +554,161 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.95">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.95">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.95">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.95">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.95">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.95">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.95">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.95">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.95">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.95">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.95">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -725,18 +729,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -756,18 +760,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EBBC2-C0EF-404E-99BD-5BCE7C0C0449}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -787,18 +791,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
